--- a/Purchasing_List_v3X_sa.xlsx
+++ b/Purchasing_List_v3X_sa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saxani/My Drive/CosmicWatch/GitHub/CosmicWatch-Desktop-Muon-Detector-v3X/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saxani/My Drive/CosmicWatch/Detector_Versions/CosmicWatch_v3X/KiCad/CosmicWatch_v3X_v26_printed_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A567E6-E9B3-C947-9409-2CB57933C82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9657DC7-281E-474B-9504-0D498D9DE113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="760" windowWidth="29180" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="245">
   <si>
     <t>Note 1: The color defines the seller of the component. Components are rather generic, therefore you should be able to use your favorite distributor.</t>
   </si>
@@ -53,12 +53,6 @@
     <t>Note 5: We do not include shipping or taxes in our costs analysis.</t>
   </si>
   <si>
-    <t>Note 6: We've added one extra component to the required number of Resistors and Capacitors.</t>
-  </si>
-  <si>
-    <t>Note 8: Half of the OLED screens out there have VCC and GND reversed. We want an OLED screen with the VCC pin as the left most pin, not the second left-most pin.</t>
-  </si>
-  <si>
     <t>Detector Purchasing List</t>
   </si>
   <si>
@@ -369,9 +363,6 @@
   </si>
   <si>
     <t>https://www.aliexpress.us/item/2255800088886713.html?spm=a2g0o.productlist.main.1.5d172f2c2b4LB4&amp;algo_pvid=44ab2c8b-7d04-41c8-a2d4-f8e5a7af6b37&amp;algo_exp_id=44ab2c8b-7d04-41c8-a2d4-f8e5a7af6b37-0&amp;pdp_npi=4@dis!USD!2.40!2.18!!!2.40!2.18!@2103246c17246283151024594e04ed!10000001116412896!sea!US!6040781666!X&amp;curPageLogUid=aCQMXpZQFYzb&amp;utparam-url=scene:search%7Cquery_from:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coincidence connector </t>
   </si>
   <si>
     <t>RJ45, 8p8c right angle</t>
@@ -652,22 +643,145 @@
     <t>BNC cable for testing (optional)</t>
   </si>
   <si>
-    <t>IC SWITCH SPDTX1 1.1OHM SOT23-6</t>
-  </si>
-  <si>
-    <t>TS5A3159 switch</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/texas-instruments/TS5A3159DBVR/686662</t>
-  </si>
-  <si>
-    <t>SN74LVC AND Gate</t>
-  </si>
-  <si>
-    <t>IC GATE NAND 1CH 2-INP SOT23-5</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/texas-instruments/SN74LVC1G132DBVR/758692</t>
+    <t>R12,R24,R22,R19,R17,R30,R21,R25</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>R9,R29,R28,R8,R18,R23,R13</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R10,R26,R14</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>C3,C2,C19,C17,C20</t>
+  </si>
+  <si>
+    <t>C1,C14,C11,C21,C22,C18,C6</t>
+  </si>
+  <si>
+    <t>C4,C8,C12,C25,C16,C24</t>
+  </si>
+  <si>
+    <t>C13,C5</t>
+  </si>
+  <si>
+    <t>C10,C23</t>
+  </si>
+  <si>
+    <t>C9,C15</t>
+  </si>
+  <si>
+    <t>FB1</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>U2,U5</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D1,D4</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RJ45 Coincidence connector </t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>BZ1</t>
+  </si>
+  <si>
+    <t>J4 (shared with Accelerometer)</t>
+  </si>
+  <si>
+    <t>J4 (shared with Temp/Pressure)</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>Standoff mounting screw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mounts SiPM PCB to Scintillator </t>
+  </si>
+  <si>
+    <t>SiPM to Mainboard Standoff</t>
+  </si>
+  <si>
+    <t>0.3mm silicone pad works too.</t>
+  </si>
+  <si>
+    <t>Maybe a meter of tape.</t>
+  </si>
+  <si>
+    <t>Suggest &gt;= 4GB</t>
+  </si>
+  <si>
+    <t>U9 (NOTE: GND must be outemost pin)</t>
   </si>
 </sst>
 </file>
@@ -677,7 +791,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -792,14 +906,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -838,7 +944,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -859,12 +965,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9E2F3"/>
-        <bgColor rgb="FFD9E2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -879,6 +979,72 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor rgb="FFD9E2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFD9E2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FFD9E2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor rgb="FFD9E2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor rgb="FFD9E2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -930,7 +1096,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -949,23 +1115,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -973,59 +1122,139 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1243,2073 +1472,2210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K1014"/>
+  <dimension ref="B1:O1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="88" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="88" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="60.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="51" customWidth="1"/>
-    <col min="11" max="11" width="40.33203125" customWidth="1"/>
-    <col min="12" max="29" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="60.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.33203125" customWidth="1"/>
+    <col min="13" max="30" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="1"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="29" t="s">
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="2:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
+      <c r="D9" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="33">
+        <v>1</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="35">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="8" t="s">
+      <c r="E10" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="36">
+        <v>0.12</v>
+      </c>
+      <c r="H10" s="34">
+        <f t="shared" ref="H10:H59" si="0">D10*F10</f>
+        <v>0.8</v>
+      </c>
+      <c r="I10" s="34">
+        <f>G10*D10/10</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="J10" s="34" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="10">
+      <c r="K10" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="33">
+        <v>2</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="35">
         <v>1</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="12">
-        <v>8</v>
-      </c>
-      <c r="E11" s="13">
+      <c r="E11" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="F11" s="36">
         <v>0.1</v>
       </c>
-      <c r="F11" s="13">
-        <v>0.12</v>
-      </c>
-      <c r="G11" s="11">
-        <f t="shared" ref="G11:G62" si="0">D11*E11</f>
-        <v>0.8</v>
-      </c>
-      <c r="H11" s="11">
-        <f>F11*D11/10</f>
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="10">
-        <v>2</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="F12" s="13">
+      <c r="G11" s="36">
         <v>0.25</v>
       </c>
-      <c r="G12" s="11">
+      <c r="H11" s="34">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="H12" s="11">
-        <f t="shared" ref="H12:H62" si="1">F12*D12/10</f>
+      <c r="I11" s="34">
+        <f t="shared" ref="I11:I59" si="1">G11*D11/10</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="J11" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="33">
+        <v>3</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="D12" s="35">
+        <v>1</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="36">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H12" s="34">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="34">
+        <f t="shared" si="1"/>
+        <v>1.4000000000000002E-2</v>
+      </c>
+      <c r="J12" s="34" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="10">
-        <v>3</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="K12" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="12">
-        <v>6</v>
-      </c>
-      <c r="E13" s="13">
+    </row>
+    <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="33">
+        <v>4</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="35">
+        <v>7</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="36">
         <v>0.1</v>
       </c>
-      <c r="F13" s="13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G13" s="11">
-        <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="H13" s="11">
-        <f t="shared" si="1"/>
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="10">
-        <v>4</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="12">
-        <v>7</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="F14" s="13">
+      <c r="G13" s="36">
         <v>0.25</v>
       </c>
-      <c r="G14" s="11">
+      <c r="H13" s="34">
         <f t="shared" si="0"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="H14" s="11">
+      <c r="I13" s="34">
         <f t="shared" si="1"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="J13" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="33">
+        <v>5</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="D14" s="35">
+        <v>1</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="36">
+        <v>0.27</v>
+      </c>
+      <c r="H14" s="34">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="34">
+        <f t="shared" si="1"/>
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="J14" s="34" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="10">
+      <c r="K14" s="37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="33">
+        <v>6</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="35">
+        <v>1</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="F15" s="36">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G15" s="36">
+        <v>1.08</v>
+      </c>
+      <c r="H15" s="34">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I15" s="34">
+        <f t="shared" si="1"/>
+        <v>0.10800000000000001</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="33">
+        <v>7</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="35">
+        <v>1</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="36">
+        <v>0.61</v>
+      </c>
+      <c r="H16" s="34">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I16" s="34">
+        <f t="shared" si="1"/>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="33">
+        <v>8</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="35">
+        <v>3</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="36">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H17" s="34">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="I17" s="34">
+        <f t="shared" si="1"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="33">
+        <v>9</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="35">
+        <v>1</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="F18" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="36">
+        <v>0.12</v>
+      </c>
+      <c r="H18" s="34">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I18" s="34">
+        <f t="shared" si="1"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="33">
+        <v>10</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="35">
+        <v>1</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="G19" s="36">
+        <v>0.12</v>
+      </c>
+      <c r="H19" s="34">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="34">
+        <f t="shared" si="1"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="33">
+        <v>11</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="35">
+        <v>1</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" s="36">
+        <v>0.13</v>
+      </c>
+      <c r="G20" s="36">
+        <v>0.16</v>
+      </c>
+      <c r="H20" s="34">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+      <c r="I20" s="34">
+        <f t="shared" si="1"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="33">
+        <v>12</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="35">
+        <v>1</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="F21" s="36">
+        <v>0.11</v>
+      </c>
+      <c r="G21" s="36">
+        <v>0.35</v>
+      </c>
+      <c r="H21" s="34">
+        <f t="shared" si="0"/>
+        <v>0.11</v>
+      </c>
+      <c r="I21" s="34">
+        <f t="shared" si="1"/>
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="33">
+        <v>14</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="35">
         <v>5</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="12">
+      <c r="E22" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="36">
+        <v>0.19</v>
+      </c>
+      <c r="G22" s="36">
+        <v>1.08</v>
+      </c>
+      <c r="H22" s="34">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+      <c r="I22" s="34">
+        <f t="shared" si="1"/>
+        <v>0.54</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="33">
+        <v>15</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="39">
+        <v>7</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="F23" s="36">
+        <v>0.11</v>
+      </c>
+      <c r="G23" s="36">
+        <v>0.63</v>
+      </c>
+      <c r="H23" s="34">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
+      </c>
+      <c r="I23" s="34">
+        <f t="shared" si="1"/>
+        <v>0.441</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23" s="37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="33">
+        <v>16</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="39">
+        <v>6</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="36">
+        <v>0.08</v>
+      </c>
+      <c r="G24" s="36">
+        <v>0.08</v>
+      </c>
+      <c r="H24" s="34">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="I24" s="34">
+        <f t="shared" si="1"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" s="37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="33">
+        <v>17</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="39">
         <v>2</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E25" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="F25" s="36">
         <v>0.1</v>
       </c>
-      <c r="F15" s="13">
-        <v>0.27</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="G25" s="36">
+        <v>0.49</v>
+      </c>
+      <c r="H25" s="34">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="H15" s="11">
+      <c r="I25" s="34">
+        <f t="shared" si="1"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="K25" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="33">
+        <v>18</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="39">
+        <v>2</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="F26" s="36">
+        <v>0.11</v>
+      </c>
+      <c r="G26" s="36">
+        <v>0.61</v>
+      </c>
+      <c r="H26" s="34">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="I26" s="34">
+        <f t="shared" si="1"/>
+        <v>0.122</v>
+      </c>
+      <c r="J26" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="33">
+        <v>19</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="39">
+        <v>2</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="F27" s="36">
+        <v>0.08</v>
+      </c>
+      <c r="G27" s="36">
+        <v>0.11</v>
+      </c>
+      <c r="H27" s="34">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="I27" s="34">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="K27" s="37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="39">
+        <v>1</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="F28" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="36">
+        <v>0.22</v>
+      </c>
+      <c r="H28" s="34">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I28" s="34">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J28" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28" s="37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="F29" s="36">
+        <v>1.04</v>
+      </c>
+      <c r="G29" s="36">
+        <v>6.31</v>
+      </c>
+      <c r="H29" s="34">
+        <f t="shared" si="0"/>
+        <v>1.04</v>
+      </c>
+      <c r="I29" s="34">
+        <f t="shared" si="1"/>
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="J29" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K29" s="37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="33">
+        <v>24</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="39">
+        <v>1</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="F30" s="36">
+        <v>4</v>
+      </c>
+      <c r="G30" s="36">
+        <v>40</v>
+      </c>
+      <c r="H30" s="34">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I30" s="34">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J30" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="K30" s="37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="33">
+        <f t="shared" ref="B31:B57" si="2">B30+1</f>
+        <v>25</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="39">
+        <v>1</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="36">
+        <v>0.15</v>
+      </c>
+      <c r="G31" s="36">
+        <v>1.22</v>
+      </c>
+      <c r="H31" s="34">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="I31" s="34">
+        <f t="shared" si="1"/>
+        <v>0.122</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="K31" s="37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="33">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="39">
+        <v>1</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="G32" s="36">
+        <v>0.54</v>
+      </c>
+      <c r="H32" s="34">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I32" s="34">
         <f t="shared" si="1"/>
         <v>5.4000000000000006E-2</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="10">
-        <v>6</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="J32" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="K32" s="37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="33">
+        <v>25</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="39">
+        <v>2</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F33" s="36">
+        <v>1.92</v>
+      </c>
+      <c r="G33" s="36">
+        <v>11.92</v>
+      </c>
+      <c r="H33" s="34">
+        <f t="shared" si="0"/>
+        <v>3.84</v>
+      </c>
+      <c r="I33" s="34">
+        <f t="shared" si="1"/>
+        <v>2.3839999999999999</v>
+      </c>
+      <c r="J33" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="K33" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="33">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="39">
         <v>1</v>
       </c>
-      <c r="E16" s="13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F16" s="13">
-        <v>1.08</v>
-      </c>
-      <c r="G16" s="11">
+      <c r="E34" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="36">
+        <v>1.67</v>
+      </c>
+      <c r="G34" s="36">
+        <v>12.26</v>
+      </c>
+      <c r="H34" s="34">
         <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H16" s="11">
+        <v>1.67</v>
+      </c>
+      <c r="I34" s="34">
         <f t="shared" si="1"/>
-        <v>0.10800000000000001</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="10">
-        <v>7</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="12">
+        <v>1.226</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="K34" s="37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="33">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="39">
         <v>1</v>
       </c>
-      <c r="E17" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0.61</v>
-      </c>
-      <c r="G17" s="11">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="H17" s="11">
-        <f t="shared" si="1"/>
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="10">
-        <v>8</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="12">
-        <v>3</v>
-      </c>
-      <c r="E18" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G18" s="11">
-        <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="H18" s="11">
-        <f t="shared" si="1"/>
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="10">
-        <v>9</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="12">
-        <v>1</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="13">
-        <v>0.12</v>
-      </c>
-      <c r="G19" s="11">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="H19" s="11">
-        <f t="shared" si="1"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="10">
-        <v>10</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="12">
-        <v>1</v>
-      </c>
-      <c r="E20" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="F20" s="13">
-        <v>0.12</v>
-      </c>
-      <c r="G20" s="11">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="H20" s="11">
-        <f t="shared" si="1"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="10">
-        <v>11</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="12">
-        <v>1</v>
-      </c>
-      <c r="E21" s="13">
+      <c r="E35" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="F35" s="36">
         <v>0.13</v>
       </c>
-      <c r="F21" s="13">
-        <v>0.16</v>
-      </c>
-      <c r="G21" s="11">
+      <c r="G35" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="H35" s="34">
         <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
-      <c r="H21" s="11">
-        <f t="shared" si="1"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="10">
-        <v>12</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="12">
-        <v>1</v>
-      </c>
-      <c r="E22" s="13">
-        <v>0.11</v>
-      </c>
-      <c r="F22" s="13">
-        <v>0.35</v>
-      </c>
-      <c r="G22" s="11">
-        <f t="shared" si="0"/>
-        <v>0.11</v>
-      </c>
-      <c r="H22" s="11">
-        <f t="shared" si="1"/>
-        <v>3.4999999999999996E-2</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="10">
-        <v>14</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="12">
-        <v>5</v>
-      </c>
-      <c r="E23" s="13">
-        <v>0.19</v>
-      </c>
-      <c r="F23" s="13">
-        <v>1.08</v>
-      </c>
-      <c r="G23" s="11">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-      <c r="H23" s="11">
-        <f t="shared" si="1"/>
-        <v>0.54</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="10">
-        <v>15</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="15">
-        <v>7</v>
-      </c>
-      <c r="E24" s="13">
-        <v>0.11</v>
-      </c>
-      <c r="F24" s="13">
-        <v>0.63</v>
-      </c>
-      <c r="G24" s="11">
-        <f t="shared" si="0"/>
-        <v>0.77</v>
-      </c>
-      <c r="H24" s="11">
-        <f t="shared" si="1"/>
-        <v>0.441</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="10">
-        <v>16</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="15">
-        <v>10</v>
-      </c>
-      <c r="E25" s="13">
-        <v>0.08</v>
-      </c>
-      <c r="F25" s="13">
-        <v>0.08</v>
-      </c>
-      <c r="G25" s="11">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="H25" s="11">
+      <c r="I35" s="34">
         <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
-      <c r="I25" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="10">
-        <v>17</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="15">
-        <v>2</v>
-      </c>
-      <c r="E26" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="F26" s="13">
-        <v>0.49</v>
-      </c>
-      <c r="G26" s="11">
+      <c r="J35" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="K35" s="37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="33">
+        <v>26</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="39">
+        <v>1</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="F36" s="36">
+        <v>0.89</v>
+      </c>
+      <c r="G36" s="36">
+        <v>7.55</v>
+      </c>
+      <c r="H36" s="34">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="H26" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="I36" s="34">
         <f t="shared" si="1"/>
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="10">
-        <v>18</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="15">
-        <v>2</v>
-      </c>
-      <c r="E27" s="13">
-        <v>0.11</v>
-      </c>
-      <c r="F27" s="13">
-        <v>0.61</v>
-      </c>
-      <c r="G27" s="11">
-        <f t="shared" si="0"/>
-        <v>0.22</v>
-      </c>
-      <c r="H27" s="11">
-        <f t="shared" si="1"/>
-        <v>0.122</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="10">
-        <v>19</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="15">
-        <v>2</v>
-      </c>
-      <c r="E28" s="13">
-        <v>0.08</v>
-      </c>
-      <c r="F28" s="13">
-        <v>0.11</v>
-      </c>
-      <c r="G28" s="11">
-        <f t="shared" si="0"/>
-        <v>0.16</v>
-      </c>
-      <c r="H28" s="11">
-        <f t="shared" si="1"/>
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="15">
-        <v>1</v>
-      </c>
-      <c r="E29" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="F29" s="13">
-        <v>0.22</v>
-      </c>
-      <c r="G29" s="11">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="H29" s="11">
-        <f t="shared" si="1"/>
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="13">
-        <v>1.04</v>
-      </c>
-      <c r="F30" s="13">
-        <v>6.31</v>
-      </c>
-      <c r="G30" s="11">
-        <f t="shared" si="0"/>
-        <v>1.04</v>
-      </c>
-      <c r="H30" s="11">
-        <f t="shared" si="1"/>
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="10">
-        <v>24</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="15">
-        <v>1</v>
-      </c>
-      <c r="E31" s="13">
-        <v>4</v>
-      </c>
-      <c r="F31" s="13">
-        <v>40</v>
-      </c>
-      <c r="G31" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H31" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I31" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="J31" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="10">
-        <f t="shared" ref="B32:B39" si="2">B31+1</f>
-        <v>25</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="15">
-        <v>1</v>
-      </c>
-      <c r="E32" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="F32" s="13">
-        <v>1.22</v>
-      </c>
-      <c r="G32" s="11">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="H32" s="11">
-        <f t="shared" si="1"/>
-        <v>0.122</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="10">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="15">
-        <v>1</v>
-      </c>
-      <c r="E33" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="F33" s="13">
-        <v>0.54</v>
-      </c>
-      <c r="G33" s="11">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="H33" s="11">
-        <f t="shared" si="1"/>
-        <v>5.4000000000000006E-2</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J33" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="10">
+        <v>0.755</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="K36" s="37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="33">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="15">
+      <c r="C37" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="39">
         <v>2</v>
       </c>
-      <c r="E34" s="13">
-        <v>1.92</v>
-      </c>
-      <c r="F34" s="13">
-        <v>11.92</v>
-      </c>
-      <c r="G34" s="11">
+      <c r="E37" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="F37" s="36">
+        <v>0.13</v>
+      </c>
+      <c r="G37" s="36">
+        <v>0.73</v>
+      </c>
+      <c r="H37" s="34">
         <f t="shared" si="0"/>
-        <v>3.84</v>
-      </c>
-      <c r="H34" s="11">
+        <v>0.26</v>
+      </c>
+      <c r="I37" s="34">
         <f t="shared" si="1"/>
-        <v>2.3839999999999999</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="J34" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="10">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="K37" s="37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="33">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="D35" s="15">
+      <c r="C38" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="39">
         <v>1</v>
       </c>
-      <c r="E35" s="13">
-        <v>0.48</v>
-      </c>
-      <c r="F35" s="13">
-        <f>0.335*10</f>
-        <v>3.35</v>
-      </c>
-      <c r="G35" s="11">
+      <c r="E38" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="F38" s="36">
+        <v>2.48</v>
+      </c>
+      <c r="G38" s="36">
+        <v>21.07</v>
+      </c>
+      <c r="H38" s="34">
         <f t="shared" si="0"/>
-        <v>0.48</v>
-      </c>
-      <c r="H35" s="11">
+        <v>2.48</v>
+      </c>
+      <c r="I38" s="34">
         <f t="shared" si="1"/>
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="J35" s="33" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="10">
-        <v>29</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="D36" s="15">
+        <v>2.1070000000000002</v>
+      </c>
+      <c r="J38" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="K38" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="33">
+        <v>27</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="39">
         <v>1</v>
       </c>
-      <c r="E36" s="13">
-        <v>0.19</v>
-      </c>
-      <c r="F36" s="13">
-        <f>0.129*10</f>
-        <v>1.29</v>
-      </c>
-      <c r="G36" s="11">
+      <c r="E39" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="F39" s="36">
+        <v>0.33</v>
+      </c>
+      <c r="G39" s="36">
+        <v>2.82</v>
+      </c>
+      <c r="H39" s="34">
         <f t="shared" si="0"/>
-        <v>0.19</v>
-      </c>
-      <c r="H36" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="I39" s="34">
         <f t="shared" si="1"/>
-        <v>0.129</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="J36" s="33" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="10">
-        <f>B34+1</f>
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="J39" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="K39" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="33">
+        <v>30</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="39">
+        <v>1</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="F40" s="36">
+        <v>0.53</v>
+      </c>
+      <c r="G40" s="36">
+        <v>4.51</v>
+      </c>
+      <c r="H40" s="34">
+        <f t="shared" ref="H40:H41" si="3">D40*F40</f>
+        <v>0.53</v>
+      </c>
+      <c r="I40" s="34">
+        <f t="shared" ref="I40:I41" si="4">G40*D40/10</f>
+        <v>0.45099999999999996</v>
+      </c>
+      <c r="J40" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="K40" s="37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="33">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="39">
+        <v>1</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="F41" s="36">
+        <v>28.41</v>
+      </c>
+      <c r="G41" s="36">
+        <v>251.47</v>
+      </c>
+      <c r="H41" s="34">
+        <f t="shared" si="3"/>
+        <v>28.41</v>
+      </c>
+      <c r="I41" s="34">
+        <f t="shared" si="4"/>
+        <v>25.146999999999998</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="K41" s="37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="67">
+        <f>B39+1</f>
         <v>28</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="15">
+      <c r="C42" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" s="68">
         <v>1</v>
       </c>
-      <c r="E37" s="13">
-        <v>1.67</v>
-      </c>
-      <c r="F37" s="13">
-        <v>12.26</v>
-      </c>
-      <c r="G37" s="11">
+      <c r="E42" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="F42" s="69">
+        <v>0.45</v>
+      </c>
+      <c r="G42" s="69">
+        <v>3.83</v>
+      </c>
+      <c r="H42" s="70">
         <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-      <c r="H37" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="I42" s="70">
         <f t="shared" si="1"/>
-        <v>1.226</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J37" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="10">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="J42" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="K42" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="L42" s="72"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+    </row>
+    <row r="43" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="47">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="15">
-        <v>2</v>
-      </c>
-      <c r="E38" s="13">
-        <v>0.13</v>
-      </c>
-      <c r="F38" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="G38" s="11">
+      <c r="C43" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="48">
+        <v>1</v>
+      </c>
+      <c r="E43" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="F43" s="49">
+        <f>6.89/10</f>
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="G43" s="49">
+        <v>6.89</v>
+      </c>
+      <c r="H43" s="50">
         <f t="shared" si="0"/>
-        <v>0.26</v>
-      </c>
-      <c r="H38" s="11">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="I43" s="50">
         <f t="shared" si="1"/>
-        <v>0.16</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="J38" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="10">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="J43" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="K43" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="47">
+        <v>28</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="48">
+        <v>1</v>
+      </c>
+      <c r="E44" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="F44" s="49">
+        <f>7.39/5</f>
+        <v>1.478</v>
+      </c>
+      <c r="G44" s="49">
+        <f>7.39*2</f>
+        <v>14.78</v>
+      </c>
+      <c r="H44" s="50">
+        <f t="shared" si="0"/>
+        <v>1.478</v>
+      </c>
+      <c r="I44" s="50">
+        <f t="shared" si="1"/>
+        <v>1.478</v>
+      </c>
+      <c r="J44" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="K44" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="47">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="48">
+        <v>1</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="F45" s="49">
+        <v>6.99</v>
+      </c>
+      <c r="G45" s="49">
+        <f>3.663333333*10</f>
+        <v>36.633333329999999</v>
+      </c>
+      <c r="H45" s="50">
+        <f t="shared" si="0"/>
+        <v>6.99</v>
+      </c>
+      <c r="I45" s="50">
+        <f t="shared" si="1"/>
+        <v>3.6633333329999997</v>
+      </c>
+      <c r="J45" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="K45" s="51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="47">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="15">
-        <v>2</v>
-      </c>
-      <c r="E39" s="13">
-        <v>0.89</v>
-      </c>
-      <c r="F39" s="13">
-        <v>7.55</v>
-      </c>
-      <c r="G39" s="11">
-        <f t="shared" si="0"/>
-        <v>1.78</v>
-      </c>
-      <c r="H39" s="11">
-        <f t="shared" si="1"/>
-        <v>1.51</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="10">
-        <v>10</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="15">
-        <v>2</v>
-      </c>
-      <c r="E40" s="13">
-        <v>0.13</v>
-      </c>
-      <c r="F40" s="13">
-        <v>0.73</v>
-      </c>
-      <c r="G40" s="11">
-        <f t="shared" si="0"/>
-        <v>0.26</v>
-      </c>
-      <c r="H40" s="11">
-        <f t="shared" si="1"/>
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="10">
-        <v>11</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="15">
+      <c r="C46" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="48">
         <v>1</v>
       </c>
-      <c r="E41" s="13">
-        <v>2.48</v>
-      </c>
-      <c r="F41" s="13">
-        <v>21.07</v>
-      </c>
-      <c r="G41" s="11">
-        <f t="shared" si="0"/>
-        <v>2.48</v>
-      </c>
-      <c r="H41" s="11">
-        <f t="shared" si="1"/>
-        <v>2.1070000000000002</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="J41" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="K41" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="10">
-        <v>12</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="15">
-        <v>1</v>
-      </c>
-      <c r="E42" s="13">
-        <v>0.33</v>
-      </c>
-      <c r="F42" s="13">
-        <v>2.82</v>
-      </c>
-      <c r="G42" s="11">
-        <f t="shared" si="0"/>
-        <v>0.33</v>
-      </c>
-      <c r="H42" s="11">
-        <f t="shared" si="1"/>
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="J42" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="K42" s="18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="10">
-        <v>13</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" s="15">
-        <v>1</v>
-      </c>
-      <c r="E43" s="13">
-        <v>0.45</v>
-      </c>
-      <c r="F43" s="13">
-        <v>3.83</v>
-      </c>
-      <c r="G43" s="11">
-        <f t="shared" si="0"/>
-        <v>0.45</v>
-      </c>
-      <c r="H43" s="11">
-        <f t="shared" si="1"/>
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="J43" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="K43" s="18"/>
-    </row>
-    <row r="44" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="10">
-        <v>14</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="15">
-        <v>1</v>
-      </c>
-      <c r="E44" s="13">
-        <f>6.89/10</f>
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="F44" s="13">
-        <v>6.89</v>
-      </c>
-      <c r="G44" s="11">
-        <f t="shared" si="0"/>
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="H44" s="11">
-        <f t="shared" si="1"/>
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="J44" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="K44" s="18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="10">
-        <v>15</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D45" s="15">
-        <v>1</v>
-      </c>
-      <c r="E45" s="13">
-        <f>7.39/5</f>
-        <v>1.478</v>
-      </c>
-      <c r="F45" s="13">
-        <f>7.39*2</f>
-        <v>14.78</v>
-      </c>
-      <c r="G45" s="11">
-        <f t="shared" si="0"/>
-        <v>1.478</v>
-      </c>
-      <c r="H45" s="11">
-        <f t="shared" si="1"/>
-        <v>1.478</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="J45" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="K45" s="18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="10">
-        <v>16</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D46" s="15">
-        <v>1</v>
-      </c>
-      <c r="E46" s="13">
-        <v>6.99</v>
-      </c>
-      <c r="F46" s="13">
-        <f>3.663333333*10</f>
-        <v>36.633333329999999</v>
-      </c>
-      <c r="G46" s="11">
-        <f t="shared" si="0"/>
-        <v>6.99</v>
-      </c>
-      <c r="H46" s="11">
-        <f t="shared" si="1"/>
-        <v>3.6633333329999997</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="J46" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="10">
-        <v>17</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D47" s="15">
-        <v>1</v>
-      </c>
-      <c r="E47" s="13">
-        <f t="shared" ref="E47:E48" si="3">6.99/100</f>
+      <c r="E46" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="F46" s="49">
+        <f t="shared" ref="F46:F47" si="5">6.99/100</f>
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="F47" s="13">
-        <f t="shared" ref="F47:F48" si="4">6.99/10</f>
+      <c r="G46" s="49">
+        <f t="shared" ref="G46:G47" si="6">6.99/10</f>
         <v>0.69900000000000007</v>
       </c>
-      <c r="G47" s="11">
+      <c r="H46" s="50">
         <f t="shared" si="0"/>
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="H47" s="11">
+      <c r="I46" s="50">
         <f t="shared" si="1"/>
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="I47" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="J47" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="10">
-        <v>18</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" s="15">
+      <c r="J46" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="K46" s="51" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="47">
+        <v>29</v>
+      </c>
+      <c r="C47" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="48">
         <v>1</v>
       </c>
-      <c r="E48" s="13">
-        <f t="shared" si="3"/>
+      <c r="E47" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="F47" s="49">
+        <f t="shared" si="5"/>
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="F48" s="13">
-        <f t="shared" si="4"/>
+      <c r="G47" s="49">
+        <f t="shared" si="6"/>
         <v>0.69900000000000007</v>
       </c>
-      <c r="G48" s="11">
+      <c r="H47" s="50">
         <f t="shared" si="0"/>
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="H48" s="11">
+      <c r="I47" s="50">
         <f t="shared" si="1"/>
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="I48" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="10">
-        <v>19</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D49" s="15">
+      <c r="J47" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="K47" s="51" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="47">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="48">
         <v>1</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E48" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="F48" s="49">
         <v>5</v>
       </c>
-      <c r="F49" s="13">
+      <c r="G48" s="49">
         <v>28</v>
       </c>
-      <c r="G49" s="11">
+      <c r="H48" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H49" s="11">
+      <c r="I48" s="50">
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="I49" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="J49" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="K49" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="10">
-        <v>20</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D50" s="15">
+      <c r="J48" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="K48" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="47">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="48">
         <v>1</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E49" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="F49" s="49">
         <f>7.29/6</f>
         <v>1.2150000000000001</v>
       </c>
-      <c r="F50" s="13">
-        <f>E50*10</f>
+      <c r="G49" s="49">
+        <f>F49*10</f>
         <v>12.15</v>
       </c>
-      <c r="G50" s="11">
+      <c r="H49" s="50">
         <f t="shared" si="0"/>
         <v>1.2150000000000001</v>
       </c>
-      <c r="H50" s="11">
+      <c r="I49" s="50">
         <f t="shared" si="1"/>
         <v>1.2150000000000001</v>
       </c>
-      <c r="I50" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="J50" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="K50" s="18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="10">
-        <v>21</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D51" s="15">
+      <c r="J49" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="K49" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="47">
+        <v>32</v>
+      </c>
+      <c r="C50" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" s="54">
         <v>1</v>
       </c>
-      <c r="E51" s="13">
-        <v>0.53</v>
-      </c>
-      <c r="F51" s="13">
-        <v>4.51</v>
-      </c>
-      <c r="G51" s="11">
-        <f t="shared" si="0"/>
-        <v>0.53</v>
-      </c>
-      <c r="H51" s="11">
-        <f t="shared" si="1"/>
-        <v>0.45099999999999996</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J51" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="10">
-        <v>22</v>
-      </c>
-      <c r="C52" s="10" t="s">
+      <c r="E50" s="54"/>
+      <c r="F50" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="G50" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="H50" s="50">
+        <f>D50*F50</f>
+        <v>0.01</v>
+      </c>
+      <c r="I50" s="50">
+        <f t="shared" ref="I50:I54" si="7">G50*D50/10</f>
+        <v>0.01</v>
+      </c>
+      <c r="J50" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="K50" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="L50" s="56"/>
+    </row>
+    <row r="51" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="47">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="C51" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="54">
+        <v>1</v>
+      </c>
+      <c r="E51" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="F51" s="49">
+        <v>1.69</v>
+      </c>
+      <c r="G51" s="49">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="H51" s="50">
+        <f t="shared" ref="H51:H54" si="8">D51*F51</f>
+        <v>1.69</v>
+      </c>
+      <c r="I51" s="50">
+        <f t="shared" si="7"/>
+        <v>1.6920000000000002</v>
+      </c>
+      <c r="J51" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="K51" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="47">
+        <v>33</v>
+      </c>
+      <c r="C52" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="D52" s="48">
+        <v>1</v>
+      </c>
+      <c r="E52" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="F52" s="49">
+        <v>2.6</v>
+      </c>
+      <c r="G52" s="49">
+        <v>26</v>
+      </c>
+      <c r="H52" s="50">
+        <f t="shared" si="8"/>
+        <v>2.6</v>
+      </c>
+      <c r="I52" s="50">
+        <f t="shared" si="7"/>
+        <v>2.6</v>
+      </c>
+      <c r="J52" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="K52" s="55" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="47">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="C53" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" s="48">
+        <v>1</v>
+      </c>
+      <c r="E53" s="48"/>
+      <c r="F53" s="49">
+        <f>8.89/6</f>
+        <v>1.4816666666666667</v>
+      </c>
+      <c r="G53" s="49">
+        <f>8.89</f>
+        <v>8.89</v>
+      </c>
+      <c r="H53" s="50">
+        <f t="shared" si="8"/>
+        <v>1.4816666666666667</v>
+      </c>
+      <c r="I53" s="50">
+        <f t="shared" si="7"/>
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="J53" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="K53" s="55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="47">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="C54" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="D54" s="48">
+        <v>1</v>
+      </c>
+      <c r="E54" s="48"/>
+      <c r="F54" s="49">
+        <v>6.54</v>
+      </c>
+      <c r="G54" s="49">
+        <f>F54*10</f>
+        <v>65.400000000000006</v>
+      </c>
+      <c r="H54" s="50">
+        <f t="shared" si="8"/>
+        <v>6.54</v>
+      </c>
+      <c r="I54" s="50">
+        <f t="shared" si="7"/>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="J54" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="K54" s="55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="42" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C55" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="D52" s="15">
-        <v>1</v>
-      </c>
-      <c r="E52" s="13">
-        <v>28.41</v>
-      </c>
-      <c r="F52" s="13">
-        <v>251.47</v>
-      </c>
-      <c r="G52" s="11">
-        <f t="shared" si="0"/>
-        <v>28.41</v>
-      </c>
-      <c r="H52" s="11">
-        <f t="shared" si="1"/>
-        <v>25.146999999999998</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="J52" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="10">
-        <v>23</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D53" s="15">
+      <c r="D55" s="43">
         <v>2</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E55" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="F55" s="44">
         <v>0.7</v>
       </c>
-      <c r="F53" s="13">
+      <c r="G55" s="44">
         <v>5.9</v>
       </c>
-      <c r="G53" s="11">
+      <c r="H55" s="45">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="H53" s="11">
+      <c r="I55" s="45">
         <f t="shared" si="1"/>
         <v>1.1800000000000002</v>
       </c>
-      <c r="I53" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J53" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="10">
-        <v>24</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D54" s="15">
-        <v>2</v>
-      </c>
-      <c r="E54" s="13">
+      <c r="J55" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="K55" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="42">
+        <v>31</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" s="43">
+        <v>4</v>
+      </c>
+      <c r="E56" s="43"/>
+      <c r="F56" s="44">
         <f>6.79/100</f>
         <v>6.7900000000000002E-2</v>
       </c>
-      <c r="F54" s="13">
+      <c r="G56" s="44">
         <f>6.79/10</f>
         <v>0.67900000000000005</v>
       </c>
-      <c r="G54" s="11">
+      <c r="H56" s="45">
         <f t="shared" si="0"/>
-        <v>0.1358</v>
-      </c>
-      <c r="H54" s="11">
+        <v>0.27160000000000001</v>
+      </c>
+      <c r="I56" s="45">
         <f t="shared" si="1"/>
-        <v>0.1358</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="J54" s="14" t="s">
+        <v>0.27160000000000001</v>
+      </c>
+      <c r="J56" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="K56" s="46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="42">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="C57" s="42" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="55" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="10">
-        <v>25</v>
-      </c>
-      <c r="C55" s="10" t="s">
+      <c r="D57" s="43">
+        <v>4</v>
+      </c>
+      <c r="E57" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="F57" s="44">
+        <f>2.65/100</f>
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="G57" s="44">
+        <f>F57*10</f>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="H57" s="45">
+        <f t="shared" si="0"/>
+        <v>0.106</v>
+      </c>
+      <c r="I57" s="45">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="J57" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="D55" s="15">
+      <c r="K57" s="46" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="57">
+        <f>B56+1</f>
+        <v>32</v>
+      </c>
+      <c r="C58" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" s="58">
         <v>1</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E58" s="58"/>
+      <c r="F58" s="59">
         <v>19</v>
       </c>
-      <c r="F55" s="13">
+      <c r="G58" s="59">
         <v>190</v>
       </c>
-      <c r="G55" s="11">
+      <c r="H58" s="60">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="H55" s="11">
+      <c r="I58" s="60">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I55" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="J55" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="10">
-        <v>26</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D56" s="15">
-        <v>4</v>
-      </c>
-      <c r="E56" s="13">
-        <f>2.65/100</f>
-        <v>2.6499999999999999E-2</v>
-      </c>
-      <c r="F56" s="13">
-        <f>E56*10</f>
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="G56" s="11">
-        <f t="shared" ref="G56" si="5">D56*E56</f>
-        <v>0.106</v>
-      </c>
-      <c r="H56" s="11">
-        <f t="shared" ref="H56" si="6">F56*D56/10</f>
-        <v>0.10600000000000001</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="J56" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="10">
-        <v>27</v>
-      </c>
-      <c r="C57" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="D57" s="32">
+      <c r="J58" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="K58" s="62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="57" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C59" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" s="64">
         <v>1</v>
       </c>
-      <c r="E57" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="F57" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="G57" s="11">
-        <f>D57*E57</f>
-        <v>0.01</v>
-      </c>
-      <c r="H57" s="11">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="I57" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="J57" s="33" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="10">
-        <v>28</v>
-      </c>
-      <c r="C58" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="D58" s="32">
-        <v>1</v>
-      </c>
-      <c r="E58" s="13">
+      <c r="E59" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="F59" s="59">
         <v>0.99</v>
       </c>
-      <c r="F58" s="13">
+      <c r="G59" s="59">
         <v>9.9499999999999993</v>
       </c>
-      <c r="G58" s="11">
+      <c r="H59" s="60">
         <f t="shared" si="0"/>
         <v>0.99</v>
       </c>
-      <c r="H58" s="11">
+      <c r="I59" s="60">
         <f t="shared" si="1"/>
         <v>0.99499999999999988</v>
       </c>
-      <c r="I58" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="J58" s="33" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="10">
-        <v>30</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="D59" s="32">
+      <c r="J59" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="K59" s="65" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="1"/>
+      <c r="C60" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="17">
+        <f>SUM(D10:D59)</f>
+        <v>91</v>
+      </c>
+      <c r="E60" s="17"/>
+      <c r="F60" s="12">
+        <f>SUM(F2:F59)</f>
+        <v>92.897866666666658</v>
+      </c>
+      <c r="G60" s="12">
+        <f>SUM(G2:G59)</f>
+        <v>795.81533332999982</v>
+      </c>
+      <c r="H60" s="12">
+        <f>SUM(H27:H59)</f>
+        <v>94.141066666666674</v>
+      </c>
+      <c r="I60" s="12">
+        <f>SUM(I27:I59)</f>
+        <v>81.080733333000012</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="2:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B62" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+    </row>
+    <row r="63" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="23">
         <v>1</v>
       </c>
-      <c r="E59" s="13">
-        <v>1.69</v>
-      </c>
-      <c r="F59" s="13">
-        <v>16.920000000000002</v>
-      </c>
-      <c r="G59" s="11">
-        <f t="shared" si="0"/>
-        <v>1.69</v>
-      </c>
-      <c r="H59" s="11">
-        <f t="shared" si="1"/>
-        <v>1.6920000000000002</v>
-      </c>
-      <c r="I59" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="J59" s="33" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="10">
-        <v>31</v>
-      </c>
-      <c r="C60" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="D60" s="15">
-        <v>1</v>
-      </c>
-      <c r="E60" s="13">
-        <v>2.6</v>
-      </c>
-      <c r="F60" s="13">
-        <v>26</v>
-      </c>
-      <c r="G60" s="11">
-        <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-      <c r="H60" s="11">
-        <f t="shared" si="1"/>
-        <v>2.6</v>
-      </c>
-      <c r="I60" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="J60" s="33" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="10">
-        <v>32</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="D61" s="15">
-        <v>1</v>
-      </c>
-      <c r="E61" s="13">
-        <f>8.89/6</f>
-        <v>1.4816666666666667</v>
-      </c>
-      <c r="F61" s="13">
-        <f>8.89</f>
-        <v>8.89</v>
-      </c>
-      <c r="G61" s="11">
-        <f t="shared" si="0"/>
-        <v>1.4816666666666667</v>
-      </c>
-      <c r="H61" s="11">
-        <f t="shared" si="1"/>
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="I61" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="J61" s="33" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="10">
-        <v>33</v>
-      </c>
-      <c r="C62" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="D62" s="15">
-        <v>1</v>
-      </c>
-      <c r="E62" s="13">
-        <v>6.54</v>
-      </c>
-      <c r="F62" s="13">
-        <f>E62*10</f>
-        <v>65.400000000000006</v>
-      </c>
-      <c r="G62" s="11">
-        <f t="shared" si="0"/>
-        <v>6.54</v>
-      </c>
-      <c r="H62" s="11">
-        <f t="shared" si="1"/>
-        <v>6.5400000000000009</v>
-      </c>
-      <c r="I62" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="J62" s="33" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="1"/>
-      <c r="C63" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="D63" s="24">
-        <f>SUM(D11:D62)</f>
-        <v>103</v>
-      </c>
-      <c r="E63" s="19">
-        <f>SUM(E2:E62)</f>
-        <v>93.567866666666674</v>
-      </c>
-      <c r="F63" s="19">
-        <f>SUM(F2:F62)</f>
-        <v>800.45533332999992</v>
-      </c>
-      <c r="G63" s="19">
-        <f>SUM(G28:G62)</f>
-        <v>95.695266666666669</v>
-      </c>
-      <c r="H63" s="19">
-        <f>SUM(H28:H62)</f>
-        <v>82.243933333000001</v>
-      </c>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="2:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="2:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="B65" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-    </row>
-    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="36">
-        <v>1</v>
-      </c>
-      <c r="C67" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="D67" s="37">
+      <c r="C64" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" s="24">
         <v>4</v>
       </c>
-      <c r="E67" s="38">
+      <c r="E64" s="24"/>
+      <c r="F64" s="25">
         <f>3.99/100</f>
         <v>3.9900000000000005E-2</v>
       </c>
-      <c r="F67" s="38">
-        <f>100*E67</f>
+      <c r="G64" s="25">
+        <f>100*F64</f>
         <v>3.9900000000000007</v>
       </c>
-      <c r="G67" s="39">
-        <f t="shared" ref="G67:G71" si="7">D67*E67</f>
+      <c r="H64" s="26">
+        <f t="shared" ref="H64:H68" si="9">D64*F64</f>
         <v>0.15960000000000002</v>
       </c>
-      <c r="H67" s="40">
-        <f t="shared" ref="H67:H71" si="8">F67*D67/10</f>
+      <c r="I64" s="27">
+        <f t="shared" ref="I64:I68" si="10">G64*D64/10</f>
         <v>1.5960000000000003</v>
       </c>
-      <c r="I67" s="41" t="s">
+      <c r="J64" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="K64" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="L64" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="23">
+        <v>2</v>
+      </c>
+      <c r="C65" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="J67" s="42" t="s">
+      <c r="D65" s="24">
+        <v>1</v>
+      </c>
+      <c r="E65" s="24"/>
+      <c r="F65" s="25">
+        <v>9</v>
+      </c>
+      <c r="G65" s="25">
+        <v>90</v>
+      </c>
+      <c r="H65" s="26">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="I65" s="27">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="J65" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="K65" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="K67" s="17" t="s">
+    </row>
+    <row r="66" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="23">
+        <v>3</v>
+      </c>
+      <c r="C66" s="30" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="36">
-        <v>2</v>
-      </c>
-      <c r="C68" s="43" t="s">
+      <c r="D66" s="24">
+        <v>1</v>
+      </c>
+      <c r="E66" s="24"/>
+      <c r="F66" s="25">
+        <v>1</v>
+      </c>
+      <c r="G66" s="25">
+        <v>5</v>
+      </c>
+      <c r="H66" s="26">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I66" s="27">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="J66" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="D68" s="37">
+      <c r="K66" s="32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="23">
+        <f t="shared" ref="B67:B68" si="11">B66+1</f>
+        <v>4</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D67" s="24">
         <v>1</v>
       </c>
-      <c r="E68" s="38">
-        <v>9</v>
-      </c>
-      <c r="F68" s="38">
-        <v>90</v>
-      </c>
-      <c r="G68" s="39">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="H68" s="40">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="I68" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="J68" s="45" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="36">
-        <v>3</v>
-      </c>
-      <c r="C69" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="D69" s="37">
-        <v>1</v>
-      </c>
-      <c r="E69" s="38">
-        <v>1</v>
-      </c>
-      <c r="F69" s="38">
-        <v>5</v>
-      </c>
-      <c r="G69" s="39">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="H69" s="40">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="I69" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="J69" s="45" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="36">
-        <f t="shared" ref="B70:B71" si="9">B69+1</f>
-        <v>4</v>
-      </c>
-      <c r="C70" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="D70" s="37">
-        <v>1</v>
-      </c>
-      <c r="E70" s="38">
+      <c r="E67" s="24"/>
+      <c r="F67" s="25">
         <f>6.09/20</f>
         <v>0.30449999999999999</v>
       </c>
-      <c r="F70" s="38">
-        <f t="shared" ref="F70:F71" si="10">E70*10</f>
+      <c r="G67" s="25">
+        <f t="shared" ref="G67:G68" si="12">F67*10</f>
         <v>3.0449999999999999</v>
       </c>
-      <c r="G70" s="39">
-        <f t="shared" si="7"/>
+      <c r="H67" s="26">
+        <f t="shared" si="9"/>
         <v>0.30449999999999999</v>
       </c>
-      <c r="H70" s="40">
-        <f t="shared" si="8"/>
+      <c r="I67" s="27">
+        <f t="shared" si="10"/>
         <v>0.30449999999999999</v>
       </c>
-      <c r="I70" s="41" t="s">
+      <c r="J67" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="K67" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="23">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="C68" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="J70" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="K70" s="20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="36">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="C71" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="D71" s="37">
+      <c r="D68" s="24">
         <v>1</v>
       </c>
-      <c r="E71" s="38">
+      <c r="E68" s="24"/>
+      <c r="F68" s="25">
         <f>11.39/100</f>
         <v>0.1139</v>
       </c>
-      <c r="F71" s="38">
+      <c r="G68" s="25">
+        <f t="shared" si="12"/>
+        <v>1.139</v>
+      </c>
+      <c r="H68" s="26">
+        <f t="shared" si="9"/>
+        <v>0.1139</v>
+      </c>
+      <c r="I68" s="27">
         <f t="shared" si="10"/>
-        <v>1.139</v>
-      </c>
-      <c r="G71" s="39">
-        <f t="shared" si="7"/>
         <v>0.1139</v>
       </c>
-      <c r="H71" s="40">
-        <f t="shared" si="8"/>
-        <v>0.1139</v>
-      </c>
-      <c r="I71" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="J71" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="K71" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J68" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="K68" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="L68" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="1"/>
+      <c r="C69" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D69" s="17">
+        <f>SUM(D64:D68)</f>
+        <v>8</v>
+      </c>
+      <c r="E69" s="17"/>
+      <c r="F69" s="12">
+        <f t="shared" ref="F69:I69" si="13">SUM(F64:F68)</f>
+        <v>10.458299999999999</v>
+      </c>
+      <c r="G69" s="12">
+        <f t="shared" si="13"/>
+        <v>103.17399999999999</v>
+      </c>
+      <c r="H69" s="12">
+        <f t="shared" si="13"/>
+        <v>10.577999999999998</v>
+      </c>
+      <c r="I69" s="12">
+        <f t="shared" si="13"/>
+        <v>11.5144</v>
+      </c>
+      <c r="J69" s="1"/>
+      <c r="K69" s="19"/>
+    </row>
+    <row r="70" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="2:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
-      <c r="C72" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="D72" s="24">
-        <f>SUM(D67:D71)</f>
-        <v>8</v>
-      </c>
-      <c r="E72" s="19">
-        <f t="shared" ref="E72:H72" si="11">SUM(E67:E71)</f>
-        <v>10.458299999999999</v>
-      </c>
-      <c r="F72" s="19">
-        <f t="shared" si="11"/>
-        <v>103.17399999999999</v>
-      </c>
-      <c r="G72" s="19">
-        <f t="shared" si="11"/>
-        <v>10.577999999999998</v>
-      </c>
-      <c r="H72" s="19">
-        <f t="shared" si="11"/>
-        <v>11.5144</v>
-      </c>
-      <c r="I72" s="1"/>
-      <c r="J72" s="27"/>
-    </row>
-    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="1"/>
+      <c r="D72" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E72" s="22"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14">
+        <f>H69+H60</f>
+        <v>104.71906666666668</v>
+      </c>
+      <c r="I72" s="14">
+        <f>I69+I60</f>
+        <v>92.595133333000007</v>
+      </c>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3319,8 +3685,9 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="2:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3330,51 +3697,14 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
-    </row>
-    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21">
-        <f>G72+G63</f>
-        <v>106.27326666666667</v>
-      </c>
-      <c r="H75" s="21">
-        <f>H72+H63</f>
-        <v>93.758333332999996</v>
-      </c>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-    </row>
-    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-    </row>
-    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4306,77 +4636,72 @@
     <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J17" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J19" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J20" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J21" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J22" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="J23" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J24" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J25" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J26" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J27" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J28" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J29" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="J30" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="J31" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J32" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="J33" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J34" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J37" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="J38" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="J39" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J40" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="J41" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="K41" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="K42" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="J44" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="K44" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="J45" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="K45" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="J46" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="J47" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J48" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="J49" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="K49" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J50" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="K50" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="J51" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="J52" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="J53" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="J54" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="J55" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="J67" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="K67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="J68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="J69" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="J70" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="K70" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="J71" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="K71" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="J58" r:id="rId56" xr:uid="{42388441-1BAB-8040-B7D7-0E95263EED92}"/>
-    <hyperlink ref="J59" r:id="rId57" display="https://www.amazon.com/Lichamp-Electrical-Waterproof-Industrial-Electric/dp/B07VNTC9LH/ref=sr_1_2_pp?crid=3LCB146OV0WJI&amp;dib=eyJ2IjoiMSJ9.Gcl4RNv8zp225gq0DAHkVi4EDCIq6D5AzeEl8wUS-2kTHgABCYWdM0lrkBwrC6UxC8Ef4YyRNKwF7vNuBw-aTVGNhJIg_WzYaUcfJ4GlJWXieTI7fwRWBMVYsPK0xuZKg5fsyXEOvMxt6ctoMXw_qb-oTLRsmL1Y21WXFEQTszCN59tWRd8Yyh7NFhDmEUPrL5lsuSnftzG0bXoeHHLLyT8TeHSw4fh-0OjyDDp-0Ik.9VYv_LrRUWx0K5tPN1byAXXHpDxFfnFxWOSeu-zEIr4&amp;dib_tag=se&amp;keywords=black+electrical+tape&amp;qid=1736882194&amp;sprefix=black+electrical+tape%2Caps%2C144&amp;sr=8-2" xr:uid="{B0917911-BC20-0743-AFDE-9C6F7882B63A}"/>
-    <hyperlink ref="J60" r:id="rId58" display="https://www.amazon.com/EASTBULL-4GB-Full-Video-Surveillance/dp/B0C39YHGC3/ref=sr_1_1?dib=eyJ2IjoiMSJ9.sAlKXbutqga0Xw4SHbAQgGXLJG5i50U81J1SxIQZNecmani74K4CvBbp0WngBmFY_6dUY1gUl_W1JU7sWcRUt-zecg60PF4NSP9VfwxJmzTpQWSXJlSEVMLiy1JSTMgYUc9vKmlFgNJQ8LddKmTUdOenLYc79HxAm_h_bhBE3GV9UdWy6QoM4P4AJryAJIZWH1Wy3iQPekqIyuoZGTDlSg8Pavk2Q8lRxGiefbLOWeA.ZK9EJLA31WcUoI9JS50-7N9OogisIeDaybxDi_lFb1c&amp;dib_tag=se&amp;keywords=4gb%2Bmicro%2Bsd%2Bcard&amp;qid=1749637941&amp;sr=8-1&amp;th=1" xr:uid="{90C0F61C-F652-AD4E-8208-4DAE66CD628C}"/>
-    <hyperlink ref="J56" r:id="rId59" xr:uid="{BD7D2FFE-1B1D-9041-81C2-71DE99D074AB}"/>
-    <hyperlink ref="J62" r:id="rId60" display="https://www.amazon.com/Monoprice-Viper-HD-SDI-RG6-Cable/dp/B01LYOSYOA/ref=sr_1_8?crid=D0YP3QV8Y59W&amp;dib=eyJ2IjoiMSJ9.ouVMlXtW52xcQCNVfWhdMHtWze7aPQGA57QfMcnibn2Fp_zEIPZbB-CYSkktuk-58ZNGVwM9jBUV3PdTJJ19jSjF9Yq3ZNLEqDZG5mCFOACkVjpLGSLZSNOKofcjhKaH1AXli7hhgHccFD7xq5wm5UznqXsbSxDvQpfcv3GTCW8N29P5q4sDC-wUFiokqC92v4rTFOcjse6sWY-rexljwke2k3gowVvTNrtCrLhqTbI.cBa7HpzQ2Q4vtAqxxz0G3ohUmivEOZNBlIvOpHOaRy0&amp;dib_tag=se&amp;keywords=bnc+cable&amp;qid=1746125810&amp;sprefix=bnc+cabl%2Caps%2C128&amp;sr=8-8" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="J57" r:id="rId61" xr:uid="{178448A3-F07B-F949-97C1-7E64AD3C17AF}"/>
-    <hyperlink ref="J61" r:id="rId62" xr:uid="{977EC2C6-C062-174B-AABE-7DF9B6D382BD}"/>
-    <hyperlink ref="J42" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="J35" r:id="rId64" xr:uid="{819238F0-8791-FD4C-B1F3-852A9CE82BEB}"/>
-    <hyperlink ref="J36" r:id="rId65" xr:uid="{36039C9D-3FB3-9146-BDF7-1BE72D30613B}"/>
-    <hyperlink ref="J43" r:id="rId66" display="https://www.aliexpress.us/item/2255800047081475.html?spm=a2g0o.productlist.main.5.75041f08oHxKQj&amp;algo_pvid=f5a390b0-14d5-48aa-8d78-c397a6a95e25&amp;algo_exp_id=f5a390b0-14d5-48aa-8d78-c397a6a95e25-2&amp;pdp_npi=4@dis!USD!1.86!1.86!!!1.86!1.86!@2103080e17246694755947771e7eb6!10000000946738865!sea!US!6040781666!X&amp;curPageLogUid=AuMGfRufyP3g&amp;utparam-url=scene:search%7Cquery_from:" xr:uid="{02C5D793-7844-7C4B-AB63-1D3ACCFA52FB}"/>
+    <hyperlink ref="K10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K17" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K21" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K22" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K24" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K25" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="K26" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K27" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K28" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K29" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K30" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K31" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K32" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K33" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="K34" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K35" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="K36" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K37" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K38" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L38" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="L39" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K43" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="L43" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="K44" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="L44" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="K45" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="K46" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="K47" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="K48" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="L48" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="K49" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="L49" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="K55" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K56" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="K58" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K64" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="L64" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="K65" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="K66" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="K67" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="L67" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="K68" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="L68" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="K59" r:id="rId54" xr:uid="{42388441-1BAB-8040-B7D7-0E95263EED92}"/>
+    <hyperlink ref="K39" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="K42" r:id="rId56" display="https://www.aliexpress.us/item/2255800047081475.html?spm=a2g0o.productlist.main.5.75041f08oHxKQj&amp;algo_pvid=f5a390b0-14d5-48aa-8d78-c397a6a95e25&amp;algo_exp_id=f5a390b0-14d5-48aa-8d78-c397a6a95e25-2&amp;pdp_npi=4@dis!USD!1.86!1.86!!!1.86!1.86!@2103080e17246694755947771e7eb6!10000000946738865!sea!US!6040781666!X&amp;curPageLogUid=AuMGfRufyP3g&amp;utparam-url=scene:search%7Cquery_from:" xr:uid="{02C5D793-7844-7C4B-AB63-1D3ACCFA52FB}"/>
+    <hyperlink ref="K57" r:id="rId57" xr:uid="{5CD98EDD-0785-9044-A311-311F3ECFD9A1}"/>
+    <hyperlink ref="K50" r:id="rId58" xr:uid="{9473A601-1C5A-5A4F-A239-C3C2976A3B2C}"/>
+    <hyperlink ref="K51" r:id="rId59" display="https://www.amazon.com/Lichamp-Electrical-Waterproof-Industrial-Electric/dp/B07VNTC9LH/ref=sr_1_2_pp?crid=3LCB146OV0WJI&amp;dib=eyJ2IjoiMSJ9.Gcl4RNv8zp225gq0DAHkVi4EDCIq6D5AzeEl8wUS-2kTHgABCYWdM0lrkBwrC6UxC8Ef4YyRNKwF7vNuBw-aTVGNhJIg_WzYaUcfJ4GlJWXieTI7fwRWBMVYsPK0xuZKg5fsyXEOvMxt6ctoMXw_qb-oTLRsmL1Y21WXFEQTszCN59tWRd8Yyh7NFhDmEUPrL5lsuSnftzG0bXoeHHLLyT8TeHSw4fh-0OjyDDp-0Ik.9VYv_LrRUWx0K5tPN1byAXXHpDxFfnFxWOSeu-zEIr4&amp;dib_tag=se&amp;keywords=black+electrical+tape&amp;qid=1736882194&amp;sprefix=black+electrical+tape%2Caps%2C144&amp;sr=8-2" xr:uid="{285D6D4C-F01F-B144-A6C0-1E4D9A03D7B8}"/>
+    <hyperlink ref="K52" r:id="rId60" display="https://www.amazon.com/EASTBULL-4GB-Full-Video-Surveillance/dp/B0C39YHGC3/ref=sr_1_1?dib=eyJ2IjoiMSJ9.sAlKXbutqga0Xw4SHbAQgGXLJG5i50U81J1SxIQZNecmani74K4CvBbp0WngBmFY_6dUY1gUl_W1JU7sWcRUt-zecg60PF4NSP9VfwxJmzTpQWSXJlSEVMLiy1JSTMgYUc9vKmlFgNJQ8LddKmTUdOenLYc79HxAm_h_bhBE3GV9UdWy6QoM4P4AJryAJIZWH1Wy3iQPekqIyuoZGTDlSg8Pavk2Q8lRxGiefbLOWeA.ZK9EJLA31WcUoI9JS50-7N9OogisIeDaybxDi_lFb1c&amp;dib_tag=se&amp;keywords=4gb%2Bmicro%2Bsd%2Bcard&amp;qid=1749637941&amp;sr=8-1&amp;th=1" xr:uid="{798A5315-9ECE-0142-A3F2-4CEE403E1CC3}"/>
+    <hyperlink ref="K54" r:id="rId61" display="https://www.amazon.com/Monoprice-Viper-HD-SDI-RG6-Cable/dp/B01LYOSYOA/ref=sr_1_8?crid=D0YP3QV8Y59W&amp;dib=eyJ2IjoiMSJ9.ouVMlXtW52xcQCNVfWhdMHtWze7aPQGA57QfMcnibn2Fp_zEIPZbB-CYSkktuk-58ZNGVwM9jBUV3PdTJJ19jSjF9Yq3ZNLEqDZG5mCFOACkVjpLGSLZSNOKofcjhKaH1AXli7hhgHccFD7xq5wm5UznqXsbSxDvQpfcv3GTCW8N29P5q4sDC-wUFiokqC92v4rTFOcjse6sWY-rexljwke2k3gowVvTNrtCrLhqTbI.cBa7HpzQ2Q4vtAqxxz0G3ohUmivEOZNBlIvOpHOaRy0&amp;dib_tag=se&amp;keywords=bnc+cable&amp;qid=1746125810&amp;sprefix=bnc+cabl%2Caps%2C128&amp;sr=8-8" xr:uid="{677EFAF4-0D9B-9541-A8F7-01F855D8E00A}"/>
+    <hyperlink ref="K53" r:id="rId62" xr:uid="{584BCE5D-1043-E741-B0AF-7BFA1F66D4FB}"/>
+    <hyperlink ref="K40" r:id="rId63" xr:uid="{19999EB4-E50A-0246-A820-5A7B75580D24}"/>
+    <hyperlink ref="K41" r:id="rId64" xr:uid="{9B71B206-FEF2-AC45-9D09-8F825585B2E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Purchasing_List_v3X_sa.xlsx
+++ b/Purchasing_List_v3X_sa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saxani/My Drive/CosmicWatch/GitHub/CosmicWatch-Desktop-Muon-Detector-v3X/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD23F9C6-2866-0D40-86C0-FD6418CA58A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C4C7D7-0B54-0E4C-90A0-D2F6BE5C2719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="760" windowWidth="29180" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11900" yWindow="760" windowWidth="18340" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1474,15 +1474,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="88" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
